--- a/test-output/Xl-Report.xlsx
+++ b/test-output/Xl-Report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Category</t>
   </si>
@@ -24,43 +24,40 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>8</t>
+    <t>11</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>1</t>
+    <t>0</t>
   </si>
   <si>
     <t>Skipped</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>17</t>
+    <t>23</t>
   </si>
   <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>2019-09-27T11:32:27Z</t>
+    <t>2019-10-04T07:40:03Z</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2019-09-27T11:33:14Z</t>
+    <t>2019-10-04T07:41:01Z</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>47099 ms</t>
+    <t>57675 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -81,97 +78,103 @@
     <t/>
   </si>
   <si>
-    <t>2019-09-27T17:03:03Z</t>
-  </si>
-  <si>
-    <t>2019-09-27T17:03:05Z</t>
-  </si>
-  <si>
-    <t>2668 ms</t>
+    <t>2019-10-04T13:10:38Z</t>
+  </si>
+  <si>
+    <t>2019-10-04T13:10:42Z</t>
+  </si>
+  <si>
+    <t>3339 ms</t>
+  </si>
+  <si>
+    <t>com.atp.testcases.TC_006_FilterByPrice.priceFilter</t>
+  </si>
+  <si>
+    <t>2019-10-04T13:10:50Z</t>
+  </si>
+  <si>
+    <t>2019-10-04T13:10:58Z</t>
+  </si>
+  <si>
+    <t>7434 ms</t>
+  </si>
+  <si>
+    <t>com.atp.testcases.TC_007_Productcat.productCat</t>
+  </si>
+  <si>
+    <t>2019-10-04T13:11:01Z</t>
+  </si>
+  <si>
+    <t>3147 ms</t>
   </si>
   <si>
     <t>com.atp.testcases.TC_003_ViewBasket.Basket</t>
   </si>
   <si>
-    <t>2019-09-27T17:02:50Z</t>
-  </si>
-  <si>
-    <t>12791 ms</t>
+    <t>2019-10-04T13:10:26Z</t>
+  </si>
+  <si>
+    <t>12681 ms</t>
   </si>
   <si>
     <t>com.atp.testcases.TC_005_ShippingAddress.ShippinDetails</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Element should have been "select" but was "input"
-Build info: version: '3.4.0', revision: 'unknown', time: 'unknown'
-System info: host: 'MININT-1TH8HFR', ip: '10.171.72.16', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_211'
-Driver info: driver.version: unknown</t>
-  </si>
-  <si>
-    <t>2019-09-27T17:03:06Z</t>
-  </si>
-  <si>
-    <t>2019-09-27T17:03:14Z</t>
-  </si>
-  <si>
-    <t>8330 ms</t>
+    <t>7959 ms</t>
   </si>
   <si>
     <t>com.atp.testcases.TC_001_Shop_verify.Title_Verification</t>
   </si>
   <si>
-    <t>2019-09-27T17:02:27Z</t>
-  </si>
-  <si>
-    <t>2019-09-27T17:02:31Z</t>
-  </si>
-  <si>
-    <t>3726 ms</t>
+    <t>2019-10-04T13:10:03Z</t>
+  </si>
+  <si>
+    <t>2019-10-04T13:10:07Z</t>
+  </si>
+  <si>
+    <t>3472 ms</t>
   </si>
   <si>
     <t>com.atp.testcases.TC_001_Shop_verify.count_slides</t>
   </si>
   <si>
-    <t>2019-09-27T17:02:34Z</t>
-  </si>
-  <si>
-    <t>3170 ms</t>
+    <t>2019-10-04T13:10:10Z</t>
+  </si>
+  <si>
+    <t>3556 ms</t>
   </si>
   <si>
     <t>com.atp.testcases.TC_002_Addtocart.Additem</t>
   </si>
   <si>
-    <t>2019-09-27T17:02:37Z</t>
-  </si>
-  <si>
-    <t>2630 ms</t>
+    <t>2019-10-04T13:10:13Z</t>
+  </si>
+  <si>
+    <t>2898 ms</t>
   </si>
   <si>
     <t>com.atp.testcases.TC_002_Addtocart.Addbasket</t>
   </si>
   <si>
-    <t>2019-09-27T17:02:39Z</t>
-  </si>
-  <si>
-    <t>2774 ms</t>
+    <t>2019-10-04T13:10:15Z</t>
+  </si>
+  <si>
+    <t>2272 ms</t>
   </si>
   <si>
     <t>com.atp.testcases.TC_002_Addtocart.imageclick</t>
   </si>
   <si>
-    <t>2019-09-27T17:02:40Z</t>
-  </si>
-  <si>
-    <t>133 ms</t>
+    <t>2019-10-04T13:10:16Z</t>
+  </si>
+  <si>
+    <t>75 ms</t>
   </si>
   <si>
     <t>com.atp.testcases.TC_002_Addtocart.popup</t>
   </si>
   <si>
-    <t>10145 ms</t>
+    <t>10154 ms</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,16 +245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -303,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -342,7 +335,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -439,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.84765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,39 +476,39 @@
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -523,67 +528,67 @@
   <cols>
     <col min="1" max="1" width="68.10546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="161.8671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.84765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.078125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>27</v>
@@ -594,139 +599,179 @@
         <v>28</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="F4" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="67" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="72" t="s">
         <v>45</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="78" t="s">
+      <c r="F11" s="84" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="90" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
